--- a/data/mall-cloud-alibaba/oms-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/oms-server_structure.xlsx
@@ -579,48 +579,48 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>sourceType</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
+    <t>receiverKeyword</t>
+  </si>
+  <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>receiverKeyword</t>
-  </si>
-  <si>
-    <t>orderSn</t>
-  </si>
-  <si>
     <t>orderType</t>
   </si>
   <si>
-    <t>sourceType</t>
-  </si>
-  <si>
     <t>orderReturnReasonService</t>
   </si>
   <si>
+    <t>returnAmount</t>
+  </si>
+  <si>
+    <t>receiveMan</t>
+  </si>
+  <si>
+    <t>handleMan</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>companyAddressId</t>
+  </si>
+  <si>
+    <t>receiveNote</t>
+  </si>
+  <si>
     <t>handleNote</t>
   </si>
   <si>
-    <t>handleMan</t>
-  </si>
-  <si>
-    <t>returnAmount</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>receiveMan</t>
-  </si>
-  <si>
-    <t>receiveNote</t>
-  </si>
-  <si>
-    <t>companyAddressId</t>
-  </si>
-  <si>
     <t>companyAddressMapper</t>
   </si>
   <si>
@@ -642,57 +642,57 @@
     <t>orderSettingService</t>
   </si>
   <si>
+    <t>receiverDetailAddress</t>
+  </si>
+  <si>
+    <t>receiverProvince</t>
+  </si>
+  <si>
+    <t>receiverRegion</t>
+  </si>
+  <si>
     <t>orderId</t>
   </si>
   <si>
-    <t>receiverDetailAddress</t>
-  </si>
-  <si>
     <t>receiverPostCode</t>
   </si>
   <si>
-    <t>receiverProvince</t>
-  </si>
-  <si>
-    <t>receiverRegion</t>
+    <t>receiverCity</t>
+  </si>
+  <si>
+    <t>receiverPhone</t>
   </si>
   <si>
     <t>receiverName</t>
   </si>
   <si>
-    <t>receiverPhone</t>
-  </si>
-  <si>
-    <t>receiverCity</t>
+    <t>orderOperateHistoryMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.OmsOrderOperateHistoryMapper</t>
+  </si>
+  <si>
+    <t>orderMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.OmsOrderMapper</t>
+  </si>
+  <si>
+    <t>orderOperateHistoryDao</t>
   </si>
   <si>
     <t>orderDao</t>
   </si>
   <si>
-    <t>orderOperateHistoryDao</t>
-  </si>
-  <si>
-    <t>orderMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.OmsOrderMapper</t>
-  </si>
-  <si>
-    <t>orderOperateHistoryMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.OmsOrderOperateHistoryMapper</t>
-  </si>
-  <si>
     <t>companyAddressService</t>
   </si>
   <si>
+    <t>deliverySn</t>
+  </si>
+  <si>
     <t>deliveryCompany</t>
   </si>
   <si>
-    <t>deliverySn</t>
-  </si>
-  <si>
     <t>returnReasonMapper</t>
   </si>
   <si>
@@ -702,12 +702,12 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>historyList</t>
+  </si>
+  <si>
     <t>orderItemList</t>
   </si>
   <si>
-    <t>historyList</t>
-  </si>
-  <si>
     <t>orderSettingMapper</t>
   </si>
   <si>
@@ -723,10 +723,10 @@
     <t>companyAddress</t>
   </si>
   <si>
+    <t>discountAmount</t>
+  </si>
+  <si>
     <t>freightAmount</t>
-  </si>
-  <si>
-    <t>discountAmount</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -9880,7 +9880,7 @@
         <v>102</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -9894,7 +9894,7 @@
         <v>102</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -9908,7 +9908,7 @@
         <v>102</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -9936,7 +9936,7 @@
         <v>102</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -9978,7 +9978,7 @@
         <v>102</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -10006,7 +10006,7 @@
         <v>102</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -10034,7 +10034,7 @@
         <v>102</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -10042,7 +10042,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>102</v>
@@ -10076,7 +10076,7 @@
         <v>102</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -10160,7 +10160,7 @@
         <v>102</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -10168,13 +10168,13 @@
         <v>71</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -10182,7 +10182,7 @@
         <v>71</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>102</v>
@@ -10196,13 +10196,13 @@
         <v>71</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -10216,7 +10216,7 @@
         <v>102</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -10286,7 +10286,7 @@
         <v>102</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>135</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
@@ -10294,13 +10294,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>109</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33">
@@ -10308,13 +10308,13 @@
         <v>95</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>217</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -10322,13 +10322,13 @@
         <v>95</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
@@ -10364,7 +10364,7 @@
         <v>111</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>102</v>
@@ -10476,13 +10476,13 @@
         <v>148</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -10496,7 +10496,7 @@
         <v>102</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -10504,13 +10504,13 @@
         <v>148</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
@@ -10518,13 +10518,13 @@
         <v>148</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -10532,7 +10532,7 @@
         <v>148</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>102</v>
@@ -10574,13 +10574,13 @@
         <v>156</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -10588,7 +10588,7 @@
         <v>156</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>102</v>
@@ -10602,13 +10602,13 @@
         <v>156</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -10616,13 +10616,13 @@
         <v>156</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
